--- a/bitcoin_predictions_with_analysis.xlsx
+++ b/bitcoin_predictions_with_analysis.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +449,582 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45644.33333333334</v>
+      </c>
+      <c r="B2" t="n">
+        <v>103330.265625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45644.375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102614.2890625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45644.41666666666</v>
+      </c>
+      <c r="B4" t="n">
+        <v>102120.078125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45644.45833333334</v>
+      </c>
+      <c r="B5" t="n">
+        <v>101636.625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45644.5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>101176.671875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45644.54166666666</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100740.65625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45644.58333333334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100328.203125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45644.625</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99943.46875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45644.66666666666</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99589.78125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45644.70833333334</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99267.7265625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45644.75</v>
+      </c>
+      <c r="B12" t="n">
+        <v>98978.8359375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45644.79166666666</v>
+      </c>
+      <c r="B13" t="n">
+        <v>98723.5859375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45644.83333333334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>98500.59375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45644.875</v>
+      </c>
+      <c r="B15" t="n">
+        <v>98308.3203125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45644.91666666666</v>
+      </c>
+      <c r="B16" t="n">
+        <v>98144.8984375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45644.95833333334</v>
+      </c>
+      <c r="B17" t="n">
+        <v>98008.15625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B18" t="n">
+        <v>97894.8359375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45645.04166666666</v>
+      </c>
+      <c r="B19" t="n">
+        <v>97803.078125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45645.08333333334</v>
+      </c>
+      <c r="B20" t="n">
+        <v>97730.5859375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45645.125</v>
+      </c>
+      <c r="B21" t="n">
+        <v>97674.7265625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45645.16666666666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>97633.9140625</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45645.20833333334</v>
+      </c>
+      <c r="B23" t="n">
+        <v>97606.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45645.25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>97590.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45645.29166666666</v>
+      </c>
+      <c r="B25" t="n">
+        <v>97583.203125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45645.33333333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>97582.7265625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45645.375</v>
+      </c>
+      <c r="B27" t="n">
+        <v>97588.28125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45645.41666666666</v>
+      </c>
+      <c r="B28" t="n">
+        <v>97598.9140625</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45645.45833333334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>97613.609375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45645.5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>97631.4609375</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45645.54166666666</v>
+      </c>
+      <c r="B31" t="n">
+        <v>97651.7109375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45645.58333333334</v>
+      </c>
+      <c r="B32" t="n">
+        <v>97673.65625</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45645.625</v>
+      </c>
+      <c r="B33" t="n">
+        <v>97696.71875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45645.66666666666</v>
+      </c>
+      <c r="B34" t="n">
+        <v>97720.40625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45645.70833333334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>97744.2890625</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45645.75</v>
+      </c>
+      <c r="B36" t="n">
+        <v>97768.015625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45645.79166666666</v>
+      </c>
+      <c r="B37" t="n">
+        <v>97791.296875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45645.83333333334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>97813.90625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45645.875</v>
+      </c>
+      <c r="B39" t="n">
+        <v>97835.640625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45645.91666666666</v>
+      </c>
+      <c r="B40" t="n">
+        <v>97856.3671875</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45645.95833333334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>97875.984375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B42" t="n">
+        <v>97894.421875</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45646.04166666666</v>
+      </c>
+      <c r="B43" t="n">
+        <v>97911.6015625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45646.08333333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>97927.5234375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45646.125</v>
+      </c>
+      <c r="B45" t="n">
+        <v>97942.1796875</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45646.16666666666</v>
+      </c>
+      <c r="B46" t="n">
+        <v>97955.578125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45646.20833333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>97967.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45646.25</v>
+      </c>
+      <c r="B48" t="n">
+        <v>97978.7265625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45646.29166666666</v>
+      </c>
+      <c r="B49" t="n">
+        <v>97988.5625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45646.33333333334</v>
+      </c>
+      <c r="B50" t="n">
+        <v>97997.3125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45646.375</v>
+      </c>
+      <c r="B51" t="n">
+        <v>98005.03125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45646.41666666666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>98011.796875</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45646.45833333334</v>
+      </c>
+      <c r="B53" t="n">
+        <v>98017.65625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45646.5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>98022.703125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45646.54166666666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>98026.9921875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45646.58333333334</v>
+      </c>
+      <c r="B56" t="n">
+        <v>98030.59375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45646.625</v>
+      </c>
+      <c r="B57" t="n">
+        <v>98033.5703125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>98035.9921875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45646.70833333334</v>
+      </c>
+      <c r="B59" t="n">
+        <v>98037.921875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45646.75</v>
+      </c>
+      <c r="B60" t="n">
+        <v>98039.4140625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45646.79166666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>98040.515625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45646.83333333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>98041.2890625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45646.875</v>
+      </c>
+      <c r="B63" t="n">
+        <v>98041.78125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45646.91666666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>98042.03125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45646.95833333334</v>
+      </c>
+      <c r="B65" t="n">
+        <v>98042.078125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45647</v>
+      </c>
+      <c r="B66" t="n">
+        <v>98041.953125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45647.04166666666</v>
+      </c>
+      <c r="B67" t="n">
+        <v>98041.6875</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45647.08333333334</v>
+      </c>
+      <c r="B68" t="n">
+        <v>98041.3203125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45647.125</v>
+      </c>
+      <c r="B69" t="n">
+        <v>98040.8671875</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45647.16666666666</v>
+      </c>
+      <c r="B70" t="n">
+        <v>98040.359375</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45647.20833333334</v>
+      </c>
+      <c r="B71" t="n">
+        <v>98039.8046875</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45647.25</v>
+      </c>
+      <c r="B72" t="n">
+        <v>98039.2265625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45647.29166666666</v>
+      </c>
+      <c r="B73" t="n">
+        <v>98038.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bitcoin_predictions_with_analysis.xlsx
+++ b/bitcoin_predictions_with_analysis.xlsx
@@ -454,7 +454,7 @@
         <v>45644.33333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>103330.265625</v>
+        <v>102927.359375</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45644.375</v>
       </c>
       <c r="B3" t="n">
-        <v>102614.2890625</v>
+        <v>102062.8203125</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45644.41666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>102120.078125</v>
+        <v>101460.421875</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45644.45833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>101636.625</v>
+        <v>100894.578125</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45644.5</v>
       </c>
       <c r="B6" t="n">
-        <v>101176.671875</v>
+        <v>100358.28125</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45644.54166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>100740.65625</v>
+        <v>99850.375</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45644.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>100328.203125</v>
+        <v>99375.2265625</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45644.625</v>
       </c>
       <c r="B9" t="n">
-        <v>99943.46875</v>
+        <v>98934.0546875</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45644.66666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>99589.78125</v>
+        <v>98533.171875</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45644.70833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>99267.7265625</v>
+        <v>98171.984375</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45644.75</v>
       </c>
       <c r="B12" t="n">
-        <v>98978.8359375</v>
+        <v>97848.109375</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45644.79166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>98723.5859375</v>
+        <v>97560.546875</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45644.83333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>98500.59375</v>
+        <v>97305.3828125</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45644.875</v>
       </c>
       <c r="B15" t="n">
-        <v>98308.3203125</v>
+        <v>97077.796875</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45644.91666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>98144.8984375</v>
+        <v>96873.8984375</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45644.95833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>98008.15625</v>
+        <v>96689.921875</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45645</v>
       </c>
       <c r="B18" t="n">
-        <v>97894.8359375</v>
+        <v>96522.03125</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45645.04166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>97803.078125</v>
+        <v>96367.1875</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45645.08333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>97730.5859375</v>
+        <v>96223.7265625</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45645.125</v>
       </c>
       <c r="B21" t="n">
-        <v>97674.7265625</v>
+        <v>96089.5078125</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45645.16666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>97633.9140625</v>
+        <v>95963.34375</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45645.20833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>97606.5</v>
+        <v>95844.609375</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45645.25</v>
       </c>
       <c r="B24" t="n">
-        <v>97590.5</v>
+        <v>95732.453125</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45645.29166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>97583.203125</v>
+        <v>95626.0390625</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45645.33333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>97582.7265625</v>
+        <v>95524.6484375</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45645.375</v>
       </c>
       <c r="B27" t="n">
-        <v>97588.28125</v>
+        <v>95428.2890625</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45645.41666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>97598.9140625</v>
+        <v>95336.7421875</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45645.45833333334</v>
       </c>
       <c r="B29" t="n">
-        <v>97613.609375</v>
+        <v>95249.7265625</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45645.5</v>
       </c>
       <c r="B30" t="n">
-        <v>97631.4609375</v>
+        <v>95166.9765625</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45645.54166666666</v>
       </c>
       <c r="B31" t="n">
-        <v>97651.7109375</v>
+        <v>95088.21875</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45645.58333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>97673.65625</v>
+        <v>95013.1796875</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45645.625</v>
       </c>
       <c r="B33" t="n">
-        <v>97696.71875</v>
+        <v>94941.625</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45645.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>97720.40625</v>
+        <v>94873.3125</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45645.70833333334</v>
       </c>
       <c r="B35" t="n">
-        <v>97744.2890625</v>
+        <v>94808</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45645.75</v>
       </c>
       <c r="B36" t="n">
-        <v>97768.015625</v>
+        <v>94745.484375</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45645.79166666666</v>
       </c>
       <c r="B37" t="n">
-        <v>97791.296875</v>
+        <v>94685.5703125</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45645.83333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>97813.90625</v>
+        <v>94628.1015625</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45645.875</v>
       </c>
       <c r="B39" t="n">
-        <v>97835.640625</v>
+        <v>94572.9375</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45645.91666666666</v>
       </c>
       <c r="B40" t="n">
-        <v>97856.3671875</v>
+        <v>94519.9296875</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45645.95833333334</v>
       </c>
       <c r="B41" t="n">
-        <v>97875.984375</v>
+        <v>94468.96875</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45646</v>
       </c>
       <c r="B42" t="n">
-        <v>97894.421875</v>
+        <v>94419.96875</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45646.04166666666</v>
       </c>
       <c r="B43" t="n">
-        <v>97911.6015625</v>
+        <v>94372.8125</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45646.08333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>97927.5234375</v>
+        <v>94327.4453125</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45646.125</v>
       </c>
       <c r="B45" t="n">
-        <v>97942.1796875</v>
+        <v>94283.7578125</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45646.16666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>97955.578125</v>
+        <v>94241.6796875</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45646.20833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>97967.75</v>
+        <v>94201.1484375</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45646.25</v>
       </c>
       <c r="B48" t="n">
-        <v>97978.7265625</v>
+        <v>94162.09375</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45646.29166666666</v>
       </c>
       <c r="B49" t="n">
-        <v>97988.5625</v>
+        <v>94124.4453125</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45646.33333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>97997.3125</v>
+        <v>94088.140625</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>45646.375</v>
       </c>
       <c r="B51" t="n">
-        <v>98005.03125</v>
+        <v>94053.125</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>45646.41666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>98011.796875</v>
+        <v>94019.34375</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>45646.45833333334</v>
       </c>
       <c r="B53" t="n">
-        <v>98017.65625</v>
+        <v>93986.7421875</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>45646.5</v>
       </c>
       <c r="B54" t="n">
-        <v>98022.703125</v>
+        <v>93955.265625</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>45646.54166666666</v>
       </c>
       <c r="B55" t="n">
-        <v>98026.9921875</v>
+        <v>93924.890625</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>45646.58333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>98030.59375</v>
+        <v>93895.546875</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>45646.625</v>
       </c>
       <c r="B57" t="n">
-        <v>98033.5703125</v>
+        <v>93867.2109375</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>45646.66666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>98035.9921875</v>
+        <v>93839.8515625</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>45646.70833333334</v>
       </c>
       <c r="B59" t="n">
-        <v>98037.921875</v>
+        <v>93813.40625</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>45646.75</v>
       </c>
       <c r="B60" t="n">
-        <v>98039.4140625</v>
+        <v>93787.875</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>45646.79166666666</v>
       </c>
       <c r="B61" t="n">
-        <v>98040.515625</v>
+        <v>93763.2109375</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>45646.83333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>98041.2890625</v>
+        <v>93739.3671875</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>45646.875</v>
       </c>
       <c r="B63" t="n">
-        <v>98041.78125</v>
+        <v>93716.328125</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>45646.91666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>98042.03125</v>
+        <v>93694.078125</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>45646.95833333334</v>
       </c>
       <c r="B65" t="n">
-        <v>98042.078125</v>
+        <v>93672.5625</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>45647</v>
       </c>
       <c r="B66" t="n">
-        <v>98041.953125</v>
+        <v>93651.78125</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>45647.04166666666</v>
       </c>
       <c r="B67" t="n">
-        <v>98041.6875</v>
+        <v>93631.6875</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>45647.08333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>98041.3203125</v>
+        <v>93612.265625</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>45647.125</v>
       </c>
       <c r="B69" t="n">
-        <v>98040.8671875</v>
+        <v>93593.484375</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>45647.16666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>98040.359375</v>
+        <v>93575.3359375</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>45647.20833333334</v>
       </c>
       <c r="B71" t="n">
-        <v>98039.8046875</v>
+        <v>93557.796875</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>45647.25</v>
       </c>
       <c r="B72" t="n">
-        <v>98039.2265625</v>
+        <v>93540.8359375</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>45647.29166666666</v>
       </c>
       <c r="B73" t="n">
-        <v>98038.625</v>
+        <v>93524.4453125</v>
       </c>
     </row>
   </sheetData>
